--- a/rawfiles/monografia_nouf.xlsx
+++ b/rawfiles/monografia_nouf.xlsx
@@ -1,133 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nome_instituicao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uf2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0135565111197124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centro universitario estacio da amazonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0398818818450731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instituto federal de educacao, ciencia e tecnologia de goias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1052954621703195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centro federal de educacao tecnologica de goias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1095840934445240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">universidade federal de mato grosso - instituto do araguaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1635975126537761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">universidade estadual do parana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1689238276976097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2715690549318064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fundacao universidade federal do tocantins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2945568298904793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">universidad peruana cayetano heredia - upch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2953914010962692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centro federal tecnologico de goias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3635108595721322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">universidade federal de mato grosso/centro universitario do araguaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5453248942975465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faculdades aparicio carvalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5532711990833873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instituto de tecnologia da amazonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centro universitario da fundacao de ensino octavio bastos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6314016993331726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centro universitario do estado do para</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6731518921429282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fundacao nilton lins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6806798160166848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">universidade paulista (am)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">universidade catolica de goias</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,13 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -209,6 +112,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -234,12 +141,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -265,7 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,179 +350,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nome_instituicao</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>uf2</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0135565111197124</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>centro universitario estacio da amazonia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0398818818450731</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>instituto federal de educacao, ciencia e tecnologia de goias</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1052954621703195</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>centro federal de educacao tecnologica de goias</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1095840934445240</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>universidade federal de mato grosso - instituto do araguaia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1635975126537761</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>universidade estadual do parana</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1689238276976097</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>instituto federal de educacao, ciencia e tecnologia de goias</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2715690549318064</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fundacao universidade federal do tocantins</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2945568298904793</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>universidad peruana cayetano heredia - upch</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2953914010962692</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>centro federal tecnologico de goias</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3635108595721322</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>universidade federal de mato grosso/centro universitario do araguaia</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5453248942975465</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>faculdades aparicio carvalho</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5532711990833873</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>instituto de tecnologia da amazonia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>noId</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>centro universitario da fundacao de ensino octavio bastos</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6314016993331726</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>centro universitario do estado do para</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6731518921429282</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>fundacao nilton lins</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6806798160166848</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>universidade paulista (am)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>noId</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>universidade catolica de goias</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>